--- a/txt/games.xlsx
+++ b/txt/games.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="181">
   <si>
     <t>Biblioteca</t>
   </si>
@@ -558,6 +558,15 @@
   </si>
   <si>
     <t>Guild Wars 2: Path of Fire</t>
+  </si>
+  <si>
+    <t>Dungeons and Dragons Online</t>
+  </si>
+  <si>
+    <t>Warhammer 40000: Space Marines</t>
+  </si>
+  <si>
+    <t>TPS / Hack and Slash</t>
   </si>
 </sst>
 </file>
@@ -593,8 +602,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,6 +2781,34 @@
         <v>2007</v>
       </c>
     </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>178</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139">
+        <v>2011</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D137">
     <sortCondition ref="B106"/>
